--- a/1.4/Source/Performance Metrics.xlsx
+++ b/1.4/Source/Performance Metrics.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuzzy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\SimpleCustomGasFramework\1.4\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A08979-3DFB-40A4-91C3-C3B6F24603EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5A293-4741-4423-A103-BDA55E4B356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-264" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E4A38F30-D560-4225-9E9D-884E91CF3883}"/>
+    <workbookView xWindow="30612" yWindow="-264" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E4A38F30-D560-4225-9E9D-884E91CF3883}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Raw Data" sheetId="3" r:id="rId2"/>
-    <sheet name="Environment" sheetId="4" r:id="rId3"/>
-    <sheet name="Methods" sheetId="2" r:id="rId4"/>
+    <sheet name="Graphs" sheetId="6" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Environment" sheetId="4" r:id="rId4"/>
+    <sheet name="Methods" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -386,7 +387,2421 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average Method Times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> per Number of Custom Gasses (5625 Cells)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vanilla</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$6,'Main Table'!$J$6,'Main Table'!$K$6,'Main Table'!$L$6,'Main Table'!$M$6,'Main Table'!$N$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9333333333333343E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10866666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6CD-41DA-AABF-31B6FF21E5FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 Custom Gas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$7,'Main Table'!$J$7,'Main Table'!$K$7,'Main Table'!$L$7,'Main Table'!$M$7,'Main Table'!$N$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16066666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8333333333333343E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10966666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6CD-41DA-AABF-31B6FF21E5FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 Custom Gasses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+            <c:extLst/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$8,'Main Table'!$J$8,'Main Table'!$K$8,'Main Table'!$L$8,'Main Table'!$M$8,'Main Table'!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60666666666666658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1666666666666656E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A6CD-41DA-AABF-31B6FF21E5FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1963259247"/>
+        <c:axId val="1963254927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1963259247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963254927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1963254927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Period (MS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963259247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Average Method Times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> per Number of Custom Gasses (105625 Cells)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vanilla</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$18,'Main Table'!$J$18,'Main Table'!$K$18,'Main Table'!$L$18,'Main Table'!$M$18,'Main Table'!$N$18)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9753333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2343333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6333333333333322E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B27E-4DCE-98F0-B10F9B305C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 Custom Gas</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$19,'Main Table'!$J$19,'Main Table'!$K$19,'Main Table'!$L$19,'Main Table'!$M$19,'Main Table'!$N$19)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1163333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.186666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3566666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4000000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B27E-4DCE-98F0-B10F9B305C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10 Custom Gasses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Main Table'!$H$2,'Main Table'!$J$2,'Main Table'!$K$2,'Main Table'!$L$2,'Main Table'!$M$2,'Main Table'!$N$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GasGrid Tick</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MapPostTick</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TryDiffuseGasses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TryDissipateGasses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PawnTick</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PawnGasEffectsTick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Main Table'!$H$20,'Main Table'!$J$20,'Main Table'!$K$20,'Main Table'!$L$20,'Main Table'!$M$20,'Main Table'!$N$20)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6126666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11133333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B27E-4DCE-98F0-B10F9B305C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1963259247"/>
+        <c:axId val="1963254927"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1963259247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Method</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963254927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1963254927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Period (MS)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963259247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBCEFFE-DD45-420F-95A7-83D585D95723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C996D8EE-3A39-4457-A866-E8F2947737B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -889,7 +3304,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,6 +4934,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4D7A23-DDC4-4BE0-BC21-4D97DF571F2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23B7BFB-9D4D-405B-AA2E-A8E1416583E0}">
   <dimension ref="A1:V73"/>
   <sheetViews>
@@ -6330,11 +8760,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4501A36-F19D-46DE-9EDD-15443997CA1F}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6371,7 +8801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A6802F-B3E6-4100-94BD-FC102CFD65DE}">
   <dimension ref="A1:B10"/>
   <sheetViews>

--- a/1.4/Source/Performance Metrics.xlsx
+++ b/1.4/Source/Performance Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\SimpleCustomGasFramework\1.4\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB5A293-4741-4423-A103-BDA55E4B356B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA52F3-F503-44ED-A935-B76B7DD1AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-264" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E4A38F30-D560-4225-9E9D-884E91CF3883}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="63">
   <si>
     <t>Method</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Custom Gasses</t>
   </si>
   <si>
     <t>Map Size</t>
@@ -219,13 +216,19 @@
     <t>Update</t>
   </si>
   <si>
-    <t>Pawns are muffalo or waste rats (depending on number of gasses, since muffalo may die before 5 seconds, don't tell PETA).</t>
-  </si>
-  <si>
     <t>Gas is designed to be as expensive as possible, having 1 option for every immunity attribute (race, gene, trait, apparel, etc…) and isToxic.</t>
   </si>
   <si>
     <t>The 'FILLED' column on the main table says whether or not all cells of the map were filled with every possible gas (using the debug 'Fill All Gas' option).</t>
+  </si>
+  <si>
+    <t>Custom Gases</t>
+  </si>
+  <si>
+    <t>Pawns are muffalo or waste rats (depending on number of gases, since muffalo may die before 5 seconds, don't tell PETA).</t>
+  </si>
+  <si>
+    <t>Mods were (in order): Harmony, Core, Royalty, Ideology, Biotech, HugsLib, [Simple Custom Gas Framework], [Gas Testing Mods]</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> per Number of Custom Gasses (5625 Cells)</a:t>
+              <a:t> per Number of Custom Gases (75x75)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -486,7 +489,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -565,7 +567,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -644,7 +645,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1051,7 +1051,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> per Number of Custom Gasses (105625 Cells)</a:t>
+              <a:t> per Number of Custom Gases (625 x 625)</a:t>
             </a:r>
             <a:endParaRPr lang="en-NZ"/>
           </a:p>
@@ -2807,13 +2807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>236219</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>179812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2855,7 +2855,7 @@
   <autoFilter ref="A2:P26" xr:uid="{34BD9791-68C6-4017-84E0-CBDEBBD28EAA}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{358F1890-55BB-4B14-85CF-0C50E596144D}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{220D228E-109B-46C5-97AE-56FCA9C20DA7}" name="Custom Gasses"/>
+    <tableColumn id="2" xr3:uid="{220D228E-109B-46C5-97AE-56FCA9C20DA7}" name="Custom Gases"/>
     <tableColumn id="3" xr3:uid="{FB5443E8-AE7E-4772-A19A-CBBC65167EE0}" name="Map Size"/>
     <tableColumn id="4" xr3:uid="{494069E0-98A0-4F0E-8E80-2A274B401674}" name="Filled"/>
     <tableColumn id="5" xr3:uid="{01DCC3F9-388C-4194-9DB2-394AD90D1D32}" name="Pawns"/>
@@ -3304,7 +3304,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,7 +3336,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -3352,25 +3352,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -3385,21 +3385,21 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -4938,7 +4938,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4984,10 +4984,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -5002,19 +5002,19 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -5079,21 +5079,21 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5348,7 +5348,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5422,7 +5422,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5792,7 +5792,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -5866,7 +5866,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N15" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6162,7 +6162,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -6236,7 +6236,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6310,7 +6310,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6606,7 +6606,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -6680,7 +6680,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -6754,7 +6754,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N26" s="2">
         <f>AVERAGEIFS(RawData[GasGrid Tick],RawData[ID],Averages[[#This Row],[ID]])</f>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6939,14 +6939,14 @@
         <v>0</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6982,15 +6982,15 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
         <v>9</v>
-      </c>
-      <c r="O29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -7023,7 +7023,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>720</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -7067,7 +7067,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>720</v>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>720</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>720</v>
@@ -7166,7 +7166,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>720</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7243,7 +7243,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>648</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7287,7 +7287,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>720</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -7331,7 +7331,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>600</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>720</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>720</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>720</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -7507,7 +7507,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>720</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -7551,7 +7551,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>720</v>
@@ -7562,7 +7562,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -7595,7 +7595,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>350</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N44">
         <v>720</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N45">
         <v>350</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N46">
         <v>720</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>720</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -7815,7 +7815,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N48">
         <v>720</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -7859,7 +7859,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N49">
         <v>720</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>720</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N51">
         <v>78</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N52">
         <v>720</v>
@@ -8002,7 +8002,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8035,7 +8035,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="M53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N53">
         <v>76</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -8116,7 +8116,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8361,7 +8361,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -8762,37 +8762,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4501A36-F19D-46DE-9EDD-15443997CA1F}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -8806,7 +8811,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8820,79 +8825,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
